--- a/7RMartSuperMarketProject/src/test/resources/TestData.xlsx
+++ b/7RMartSuperMarketProject/src/test/resources/TestData.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5B560D5A-0C0C-49D7-B8DF-A6FAC9194727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{112F10FF-4FC9-447C-83A7-E12C96E8B47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminUsersPage" sheetId="2" r:id="rId2"/>
+    <sheet name="ManageNewsPage" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N16"/>
+  <oleSize ref="A1:O16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>admin</t>
   </si>
@@ -34,6 +35,9 @@
   </si>
   <si>
     <t>Eric12345</t>
+  </si>
+  <si>
+    <t>Heavy Rain In Pattom</t>
   </si>
 </sst>
 </file>
@@ -400,7 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8E74A6-B44A-4D9C-A489-0C8E2819E24F}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -415,4 +419,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA86065-5A2C-4C7D-AE32-37DD0F115E16}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7RMartSuperMarketProject/src/test/resources/TestData.xlsx
+++ b/7RMartSuperMarketProject/src/test/resources/TestData.xlsx
@@ -3,17 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{112F10FF-4FC9-447C-83A7-E12C96E8B47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\AutoRepo\AutomationRepo\7RMartSuperMarketProject\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BB8E16-AFFE-4567-9C1F-908B334D19BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminUsersPage" sheetId="2" r:id="rId2"/>
     <sheet name="ManageNewsPage" sheetId="4" r:id="rId3"/>
+    <sheet name="ManageCategoryPage" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>admin</t>
   </si>
@@ -38,6 +43,9 @@
   </si>
   <si>
     <t>Heavy Rain In Pattom</t>
+  </si>
+  <si>
+    <t>Mangoes</t>
   </si>
 </sst>
 </file>
@@ -425,7 +433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA86065-5A2C-4C7D-AE32-37DD0F115E16}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -442,4 +450,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8471B7D-443F-44E6-B91B-4DEB698442A0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7RMartSuperMarketProject/src/test/resources/TestData.xlsx
+++ b/7RMartSuperMarketProject/src/test/resources/TestData.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\AutoRepo\AutomationRepo\7RMartSuperMarketProject\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BB8E16-AFFE-4567-9C1F-908B334D19BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9B3C63C4-F8C3-4855-96AE-30B7FDAE3CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -19,6 +14,7 @@
     <sheet name="ManageCategoryPage" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:N3"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -365,7 +361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -456,7 +452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8471B7D-443F-44E6-B91B-4DEB698442A0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/7RMartSuperMarketProject/src/test/resources/TestData.xlsx
+++ b/7RMartSuperMarketProject/src/test/resources/TestData.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9B3C63C4-F8C3-4855-96AE-30B7FDAE3CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\AutoRepo\AutomationRepo\7RMartSuperMarketProject\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8A1B0F-9679-4052-8A3F-FB8886B0BEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +19,6 @@
     <sheet name="ManageCategoryPage" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N3"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>admin</t>
   </si>
@@ -42,6 +46,12 @@
   </si>
   <si>
     <t>Mangoes</t>
+  </si>
+  <si>
+    <t>admin12</t>
+  </si>
+  <si>
+    <t>admin13</t>
   </si>
 </sst>
 </file>
@@ -361,8 +371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -380,12 +390,12 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -396,7 +406,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
